--- a/biology/Histoire de la zoologie et de la botanique/Katherine_Bitting/Katherine_Bitting.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Katherine_Bitting/Katherine_Bitting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Katherine Golden Bitting (1869–1937) est une botaniste, chimiste et biologiste, née au Canada, dont la famille a émigré aux Etats-Unis alors qu'elle était très jeune.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Katherine Bitting est une collectionneuse célèbre d'ouvrages sur la gastronomie. Elle a collaboré à plusieurs livres avec son mari Arvill Wayne Bitting (1870–1946), expert dans le domaine de la conservation et de la préparation de la nourriture.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gastronomic Bibliography. San Francisco, 1re  éd., 1939. London (Holland Press limited) 1981, Maurizio Martino Publisher, Mansfield, 1994. Une bibliographie complète de quelque 6 000 travaux — principalement en anglais, français et allemand — des XVe au XXe siècle. Information bibliographique détaillée pour chaque entrée, avec quelques entrées annotées.</t>
         </is>
